--- a/src/main/resources/universityInfo.xlsx
+++ b/src/main/resources/universityInfo.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_disks\Apmacibas\Programmesana\Java\Projekti\Skillfactory\SkillfactoryProject\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jabolins\Documents\Java\Projekti\Skillfactory_27052022\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3F5412-A7D5-4C73-BB8F-E5DEBB83BDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4803C6A1-AD7E-413D-A692-C45B4DD3AF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26235" yWindow="2370" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Студентtы" sheetId="1" r:id="rId1"/>
+    <sheet name="Студенты" sheetId="1" r:id="rId1"/>
     <sheet name="Университеты" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>id университета</t>
   </si>
@@ -81,9 +81,6 @@
     <t>МПИ</t>
   </si>
   <si>
-    <t>Московский Государственный Медицинский Университет</t>
-  </si>
-  <si>
     <t>МГМУ</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Самарский Медицинский Институт</t>
   </si>
   <si>
-    <t>СМИ</t>
-  </si>
-  <si>
     <t>Воронежский Литературно-Переводческий Университет</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>Соколов В. В.</t>
   </si>
   <si>
-    <t>Сидоров Е. Г.</t>
-  </si>
-  <si>
     <t>Витальев В. А.</t>
   </si>
   <si>
@@ -157,6 +148,9 @@
   </si>
   <si>
     <t>eee</t>
+  </si>
+  <si>
+    <t>nnn</t>
   </si>
 </sst>
 </file>
@@ -548,31 +542,31 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
@@ -581,12 +575,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -595,26 +589,26 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3">
         <v>4.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -623,12 +617,12 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -637,13 +631,10 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -651,12 +642,12 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -665,12 +656,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -679,12 +670,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -693,26 +684,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="3">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
@@ -732,19 +723,19 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,9 +753,9 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>23</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -779,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -796,15 +787,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
       </c>
       <c r="D4">
         <v>1960</v>
@@ -813,15 +804,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
       </c>
       <c r="D5">
         <v>1995</v>
@@ -830,32 +821,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>2003</v>
@@ -864,26 +852,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1989</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -893,7 +881,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
